--- a/apps/backend/public/data/new-ccf-bcom-subjects.xlsx
+++ b/apps/backend/public/data/new-ccf-bcom-subjects.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="48">
   <si>
     <t>Stream</t>
   </si>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D31" sqref="D3:D31"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="17.6"/>
@@ -2022,7 +2022,9 @@
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
